--- a/Scheme/DAC_freq.xlsx
+++ b/Scheme/DAC_freq.xlsx
@@ -24,21 +24,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>mhz</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>max fall</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>1 nyquist</t>
+  </si>
+  <si>
+    <t>2 nyquist</t>
+  </si>
+  <si>
+    <t>3 nyquist</t>
+  </si>
+  <si>
+    <t>4 nyquist</t>
+  </si>
+  <si>
+    <t>DAC clock</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>FALLS</t>
+  </si>
+  <si>
+    <t>MAX FALL</t>
+  </si>
+  <si>
+    <t>Attenuation, db</t>
+  </si>
+  <si>
+    <t>LOSS ZONE</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>DAC_freq</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>Nyquist</t>
+  </si>
+  <si>
+    <t>Interpol</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>HP2</t>
   </si>
 </sst>
 </file>
@@ -73,15 +133,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -89,14 +167,449 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,146 +892,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J8"/>
+  <dimension ref="B1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>86.4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18">
+        <f>48000*4160/1000000</f>
+        <v>199.68</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18">
+        <f>48000*2900/1000000</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f>C2*0.4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="E4" s="8">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="G4" s="8">
+        <f>F4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E5</f>
+        <v>119.80799999999999</v>
+      </c>
+      <c r="I4" s="12">
+        <f>(G4+H4)/2</f>
+        <v>99.84</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <f>J2*0.4</f>
+        <v>55.68</v>
+      </c>
+      <c r="L4" s="8">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f>K4</f>
+        <v>55.68</v>
+      </c>
+      <c r="N4" s="8">
+        <f>M4</f>
+        <v>55.68</v>
+      </c>
+      <c r="O4" s="3">
+        <f>L5</f>
+        <v>83.519999999999982</v>
+      </c>
+      <c r="P4" s="12">
+        <f>(N4+O4)/2</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="R4" s="8">
+        <f>F4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="S4" s="31">
+        <f>(R4+U4)/2</f>
+        <v>81.695999999999998</v>
+      </c>
+      <c r="T4" s="31">
+        <f>U4-R4</f>
+        <v>3.6479999999999677</v>
+      </c>
+      <c r="U4" s="3">
+        <f>L5</f>
+        <v>83.519999999999982</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C2*0.2</f>
+        <v>39.936000000000007</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C2*0.4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C2-D5</f>
+        <v>119.80799999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C2-C5</f>
+        <v>159.744</v>
+      </c>
+      <c r="G5" s="8">
+        <f>F5</f>
+        <v>159.744</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E6</f>
+        <v>239.61600000000001</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
+        <v>199.68</v>
+      </c>
+      <c r="J5" s="8">
+        <f>J2*0.2</f>
+        <v>27.84</v>
+      </c>
+      <c r="K5" s="10">
+        <f>J2*0.4</f>
+        <v>55.68</v>
+      </c>
+      <c r="L5" s="8">
+        <f>J2-K5</f>
+        <v>83.519999999999982</v>
+      </c>
+      <c r="M5" s="3">
+        <f>J2-J5</f>
+        <v>111.35999999999999</v>
+      </c>
+      <c r="N5" s="8">
+        <f>M5</f>
+        <v>111.35999999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <f>L6</f>
+        <v>167.04</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" ref="P5:P6" si="1">(N5+O5)/2</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="R5" s="8">
+        <f>M5</f>
+        <v>111.35999999999999</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" ref="S5:S7" si="2">(R5+U5)/2</f>
+        <v>115.58399999999999</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" ref="T5:T7" si="3">U5-R5</f>
+        <v>8.4480000000000075</v>
+      </c>
+      <c r="U5" s="3">
+        <f>E5</f>
+        <v>119.80799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="8">
+        <f>C2*0.2</f>
+        <v>39.936000000000007</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C2*0.4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="E6" s="8">
+        <f>C2+C6</f>
+        <v>239.61600000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C2+D6</f>
+        <v>279.55200000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6</f>
+        <v>279.55200000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <f>E7</f>
+        <v>319.488</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>299.52</v>
+      </c>
+      <c r="J6" s="8">
+        <f>J2*0.2</f>
+        <v>27.84</v>
+      </c>
+      <c r="K6" s="10">
+        <f>J2*0.4</f>
+        <v>55.68</v>
+      </c>
+      <c r="L6" s="8">
+        <f>J2+J6</f>
+        <v>167.04</v>
+      </c>
+      <c r="M6" s="3">
+        <f>J2+K6</f>
+        <v>194.88</v>
+      </c>
+      <c r="N6" s="8">
+        <f>M6</f>
+        <v>194.88</v>
+      </c>
+      <c r="O6" s="3">
+        <f>L7</f>
+        <v>222.71999999999997</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="1"/>
+        <v>208.79999999999998</v>
+      </c>
+      <c r="R6" s="8">
+        <f>F5</f>
+        <v>159.744</v>
+      </c>
+      <c r="S6" s="31">
+        <f t="shared" si="2"/>
+        <v>163.392</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="3"/>
+        <v>7.2959999999999923</v>
+      </c>
+      <c r="U6" s="3">
+        <f>L6</f>
+        <v>167.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <f>C2*0.4</f>
+        <v>79.872000000000014</v>
+      </c>
+      <c r="E7" s="9">
+        <f>C2*2-D7</f>
+        <v>319.488</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C2*2-C7</f>
+        <v>399.36</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f>J2*0.4</f>
+        <v>55.68</v>
+      </c>
+      <c r="L7" s="9">
+        <f>J2*2-K7</f>
+        <v>222.71999999999997</v>
+      </c>
+      <c r="M7" s="4">
+        <f>J2*2-J7</f>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="13"/>
+      <c r="R7" s="9">
+        <f>M6</f>
+        <v>194.88</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" si="2"/>
+        <v>197.44</v>
+      </c>
+      <c r="T7" s="33">
+        <f t="shared" si="3"/>
+        <v>5.1200000000000045</v>
+      </c>
+      <c r="U7" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G13" s="31">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <f>S4</f>
+        <v>81.695999999999998</v>
+      </c>
+      <c r="I13" s="31">
+        <f>H13-G13</f>
+        <v>81.695999999999998</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1.33</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1.83</v>
+      </c>
+      <c r="G14" s="31">
+        <f>H13</f>
+        <v>81.695999999999998</v>
+      </c>
+      <c r="H14" s="31">
+        <f>S5</f>
+        <v>115.58399999999999</v>
+      </c>
+      <c r="I14" s="31">
+        <f t="shared" ref="I14:I16" si="4">H14-G14</f>
+        <v>33.887999999999991</v>
+      </c>
+      <c r="J14" s="31">
+        <v>1</v>
+      </c>
+      <c r="K14" s="31">
+        <v>2</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C15" s="25">
+        <v>2.42</v>
+      </c>
+      <c r="D15" s="25">
+        <v>3.92</v>
+      </c>
+      <c r="G15" s="31">
+        <f>H14</f>
+        <v>115.58399999999999</v>
+      </c>
+      <c r="H15" s="31">
+        <f>S6</f>
+        <v>163.392</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" si="4"/>
+        <v>47.808000000000007</v>
+      </c>
+      <c r="J15" s="31">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K15" s="31">
+        <v>2</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="31">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <f>A2*0.4</f>
-        <v>34.56</v>
-      </c>
-      <c r="D5">
-        <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>B5</f>
-        <v>34.56</v>
-      </c>
-      <c r="G5">
-        <f>E5</f>
-        <v>34.56</v>
-      </c>
-      <c r="H5">
-        <f>D6</f>
-        <v>51.84</v>
-      </c>
-      <c r="J5">
-        <f>(G5+H5)/2</f>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A2*0.2</f>
-        <v>17.28</v>
-      </c>
-      <c r="B6">
-        <f>A2*0.4</f>
-        <v>34.56</v>
-      </c>
-      <c r="D6">
-        <f>A2-B6</f>
-        <v>51.84</v>
-      </c>
-      <c r="E6">
-        <f>A2-A6</f>
-        <v>69.12</v>
-      </c>
-      <c r="G6">
-        <f>E6</f>
-        <v>69.12</v>
-      </c>
-      <c r="H6">
-        <f>D7</f>
-        <v>103.68</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J7" si="0">(G6+H6)/2</f>
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A2*0.2</f>
-        <v>17.28</v>
-      </c>
-      <c r="B7">
-        <f>A2*0.4</f>
-        <v>34.56</v>
-      </c>
-      <c r="D7">
-        <f>A2+A7</f>
-        <v>103.68</v>
-      </c>
-      <c r="E7">
-        <f>A2+B7</f>
-        <v>120.96000000000001</v>
-      </c>
-      <c r="G7">
-        <f>E7</f>
-        <v>120.96000000000001</v>
-      </c>
-      <c r="H7">
-        <f>D8</f>
-        <v>138.24</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>129.60000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f>A2*0.4</f>
-        <v>34.56</v>
-      </c>
-      <c r="D8">
-        <f>A2*2-B8</f>
-        <v>138.24</v>
-      </c>
-      <c r="E8">
-        <f>A2*2-A8</f>
-        <v>172.8</v>
-      </c>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="31">
+        <f>H15</f>
+        <v>163.392</v>
+      </c>
+      <c r="H16" s="31">
+        <f>U7</f>
+        <v>200</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="4"/>
+        <v>36.608000000000004</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1</v>
+      </c>
+      <c r="K16" s="31">
+        <v>3</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="N16" s="31">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scheme/DAC_freq.xlsx
+++ b/Scheme/DAC_freq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>1 nyquist</t>
   </si>
@@ -54,51 +54,6 @@
   </si>
   <si>
     <t>Attenuation, db</t>
-  </si>
-  <si>
-    <t>LOSS ZONE</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>CENTER</t>
-  </si>
-  <si>
-    <t>Zones</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>DAC_freq</t>
-  </si>
-  <si>
-    <t>WIDTH</t>
-  </si>
-  <si>
-    <t>Nyquist</t>
-  </si>
-  <si>
-    <t>Interpol</t>
-  </si>
-  <si>
-    <t>2x</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>HP2</t>
   </si>
 </sst>
 </file>
@@ -159,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -438,87 +393,16 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -553,65 +437,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -909,80 +778,51 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18">
-        <f>48000*4160/1000000</f>
-        <v>199.68</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18">
-        <f>48000*2900/1000000</f>
-        <v>139.19999999999999</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="C2" s="20">
+        <f>48000*1800/1000000</f>
+        <v>86.4</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -993,7 +833,7 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="E4" s="8">
         <f>C4</f>
@@ -1001,63 +841,27 @@
       </c>
       <c r="F4" s="3">
         <f>D4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>119.80799999999999</v>
+        <v>51.84</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>99.84</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <f>J2*0.4</f>
-        <v>55.68</v>
-      </c>
-      <c r="L4" s="8">
-        <f>J4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <f>K4</f>
-        <v>55.68</v>
-      </c>
-      <c r="N4" s="8">
-        <f>M4</f>
-        <v>55.68</v>
-      </c>
-      <c r="O4" s="3">
-        <f>L5</f>
-        <v>83.519999999999982</v>
-      </c>
-      <c r="P4" s="12">
-        <f>(N4+O4)/2</f>
-        <v>69.599999999999994</v>
-      </c>
-      <c r="R4" s="8">
-        <f>F4</f>
-        <v>79.872000000000014</v>
-      </c>
-      <c r="S4" s="31">
-        <f>(R4+U4)/2</f>
-        <v>81.695999999999998</v>
-      </c>
-      <c r="T4" s="31">
-        <f>U4-R4</f>
-        <v>3.6479999999999677</v>
-      </c>
-      <c r="U4" s="3">
-        <f>L5</f>
-        <v>83.519999999999982</v>
-      </c>
+        <v>43.2</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1065,76 +869,39 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>39.936000000000007</v>
+        <v>17.28</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="E5" s="8">
         <f>C2-D5</f>
-        <v>119.80799999999999</v>
+        <v>51.84</v>
       </c>
       <c r="F5" s="3">
         <f>C2-C5</f>
-        <v>159.744</v>
+        <v>69.12</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>159.744</v>
+        <v>69.12</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>239.61600000000001</v>
+        <v>103.68</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>199.68</v>
-      </c>
-      <c r="J5" s="8">
-        <f>J2*0.2</f>
-        <v>27.84</v>
-      </c>
-      <c r="K5" s="10">
-        <f>J2*0.4</f>
-        <v>55.68</v>
-      </c>
-      <c r="L5" s="8">
-        <f>J2-K5</f>
-        <v>83.519999999999982</v>
-      </c>
-      <c r="M5" s="3">
-        <f>J2-J5</f>
-        <v>111.35999999999999</v>
-      </c>
-      <c r="N5" s="8">
-        <f>M5</f>
-        <v>111.35999999999999</v>
-      </c>
-      <c r="O5" s="3">
-        <f>L6</f>
-        <v>167.04</v>
-      </c>
-      <c r="P5" s="12">
-        <f t="shared" ref="P5:P6" si="1">(N5+O5)/2</f>
-        <v>139.19999999999999</v>
-      </c>
-      <c r="R5" s="8">
-        <f>M5</f>
-        <v>111.35999999999999</v>
-      </c>
-      <c r="S5" s="31">
-        <f t="shared" ref="S5:S7" si="2">(R5+U5)/2</f>
-        <v>115.58399999999999</v>
-      </c>
-      <c r="T5" s="31">
-        <f t="shared" ref="T5:T7" si="3">U5-R5</f>
-        <v>8.4480000000000075</v>
-      </c>
-      <c r="U5" s="3">
-        <f>E5</f>
-        <v>119.80799999999999</v>
-      </c>
+        <v>86.4</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1142,76 +909,39 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>39.936000000000007</v>
+        <v>17.28</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>239.61600000000001</v>
+        <v>103.68</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>279.55200000000002</v>
+        <v>120.96000000000001</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>279.55200000000002</v>
+        <v>120.96000000000001</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>319.488</v>
+        <v>138.24</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>299.52</v>
-      </c>
-      <c r="J6" s="8">
-        <f>J2*0.2</f>
-        <v>27.84</v>
-      </c>
-      <c r="K6" s="10">
-        <f>J2*0.4</f>
-        <v>55.68</v>
-      </c>
-      <c r="L6" s="8">
-        <f>J2+J6</f>
-        <v>167.04</v>
-      </c>
-      <c r="M6" s="3">
-        <f>J2+K6</f>
-        <v>194.88</v>
-      </c>
-      <c r="N6" s="8">
-        <f>M6</f>
-        <v>194.88</v>
-      </c>
-      <c r="O6" s="3">
-        <f>L7</f>
-        <v>222.71999999999997</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" si="1"/>
-        <v>208.79999999999998</v>
-      </c>
-      <c r="R6" s="8">
-        <f>F5</f>
-        <v>159.744</v>
-      </c>
-      <c r="S6" s="31">
-        <f t="shared" si="2"/>
-        <v>163.392</v>
-      </c>
-      <c r="T6" s="31">
-        <f t="shared" si="3"/>
-        <v>7.2959999999999923</v>
-      </c>
-      <c r="U6" s="3">
-        <f>L6</f>
-        <v>167.04</v>
-      </c>
+        <v>129.60000000000002</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -1222,301 +952,176 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>34.56</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>319.488</v>
+        <v>138.24</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>399.36</v>
+        <v>172.8</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <f>J2*0.4</f>
-        <v>55.68</v>
-      </c>
-      <c r="L7" s="9">
-        <f>J2*2-K7</f>
-        <v>222.71999999999997</v>
-      </c>
-      <c r="M7" s="4">
-        <f>J2*2-J7</f>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="13"/>
-      <c r="R7" s="9">
-        <f>M6</f>
-        <v>194.88</v>
-      </c>
-      <c r="S7" s="33">
-        <f t="shared" si="2"/>
-        <v>197.44</v>
-      </c>
-      <c r="T7" s="33">
-        <f t="shared" si="3"/>
-        <v>5.1200000000000045</v>
-      </c>
-      <c r="U7" s="4">
-        <v>200</v>
-      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="17">
         <v>0.32</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G13" s="31">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <f>S4</f>
-        <v>81.695999999999998</v>
-      </c>
-      <c r="I13" s="31">
-        <f>H13-G13</f>
-        <v>81.695999999999998</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
-        <v>1</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="31">
-        <v>0</v>
-      </c>
-      <c r="N13" s="31">
-        <v>0</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="17">
         <v>1.33</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="17">
         <v>1.83</v>
       </c>
-      <c r="G14" s="31">
-        <f>H13</f>
-        <v>81.695999999999998</v>
-      </c>
-      <c r="H14" s="31">
-        <f>S5</f>
-        <v>115.58399999999999</v>
-      </c>
-      <c r="I14" s="31">
-        <f t="shared" ref="I14:I16" si="4">H14-G14</f>
-        <v>33.887999999999991</v>
-      </c>
-      <c r="J14" s="31">
-        <v>1</v>
-      </c>
-      <c r="K14" s="31">
-        <v>2</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="31">
-        <v>1</v>
-      </c>
-      <c r="N14" s="31">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="17">
         <v>2.42</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>3.92</v>
       </c>
-      <c r="G15" s="31">
-        <f>H14</f>
-        <v>115.58399999999999</v>
-      </c>
-      <c r="H15" s="31">
-        <f>S6</f>
-        <v>163.392</v>
-      </c>
-      <c r="I15" s="31">
-        <f t="shared" si="4"/>
-        <v>47.808000000000007</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
-        <v>2</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="31">
-        <v>1</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G16" s="31">
-        <f>H15</f>
-        <v>163.392</v>
-      </c>
-      <c r="H16" s="31">
-        <f>U7</f>
-        <v>200</v>
-      </c>
-      <c r="I16" s="31">
-        <f t="shared" si="4"/>
-        <v>36.608000000000004</v>
-      </c>
-      <c r="J16" s="31">
-        <v>1</v>
-      </c>
-      <c r="K16" s="31">
-        <v>3</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="31">
-        <v>1</v>
-      </c>
-      <c r="N16" s="31">
-        <v>1</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+  <mergeCells count="4">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>

--- a/Scheme/DAC_freq.xlsx
+++ b/Scheme/DAC_freq.xlsx
@@ -451,24 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +463,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -781,48 +781,51 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20">
-        <f>48000*1800/1000000</f>
-        <v>86.4</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="C2" s="26">
+        <f>48000*3760/1000000</f>
+        <v>180.48</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23">
+        <f>C2/2</f>
+        <v>90.24</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -833,7 +836,7 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="E4" s="8">
         <f>C4</f>
@@ -841,27 +844,27 @@
       </c>
       <c r="F4" s="3">
         <f>D4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>51.84</v>
+        <v>108.288</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>43.2</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+        <v>90.24</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -869,39 +872,39 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>17.28</v>
+        <v>36.095999999999997</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="E5" s="8">
         <f>C2-D5</f>
-        <v>51.84</v>
+        <v>108.288</v>
       </c>
       <c r="F5" s="3">
         <f>C2-C5</f>
-        <v>69.12</v>
+        <v>144.38399999999999</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>69.12</v>
+        <v>144.38399999999999</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>103.68</v>
+        <v>216.57599999999999</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>86.4</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+        <v>180.48</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -909,39 +912,39 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>17.28</v>
+        <v>36.095999999999997</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>103.68</v>
+        <v>216.57599999999999</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>120.96000000000001</v>
+        <v>252.67199999999997</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>120.96000000000001</v>
+        <v>252.67199999999997</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>138.24</v>
+        <v>288.76799999999997</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>129.60000000000002</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+        <v>270.71999999999997</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -952,26 +955,26 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>34.56</v>
+        <v>72.191999999999993</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>138.24</v>
+        <v>288.76799999999997</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>172.8</v>
+        <v>360.96</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1004,14 +1007,14 @@
       <c r="D12" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -1031,14 +1034,14 @@
       <c r="D13" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -1058,14 +1061,14 @@
       <c r="D14" s="17">
         <v>1.83</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -1085,14 +1088,14 @@
       <c r="D15" s="17">
         <v>3.92</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
@@ -1103,14 +1106,14 @@
       <c r="V15" s="18"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>

--- a/Scheme/DAC_freq.xlsx
+++ b/Scheme/DAC_freq.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>1 nyquist</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Attenuation, db</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>2n</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,14 +785,21 @@
     <col min="24" max="24" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="26">
-        <f>48000*3760/1000000</f>
-        <v>180.48</v>
+        <f>48000*4160/1000000</f>
+        <v>199.68</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -794,9 +810,12 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23">
         <f>C2/2</f>
-        <v>90.24</v>
-      </c>
-      <c r="L2" s="23"/>
+        <v>99.84</v>
+      </c>
+      <c r="L2" s="23">
+        <f>K2*2</f>
+        <v>199.68</v>
+      </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
@@ -836,7 +855,7 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="E4" s="8">
         <f>C4</f>
@@ -844,19 +863,19 @@
       </c>
       <c r="F4" s="3">
         <f>D4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>108.288</v>
+        <v>119.80799999999999</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>90.24</v>
+        <v>99.84</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -872,31 +891,31 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>36.095999999999997</v>
+        <v>39.936000000000007</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="E5" s="8">
         <f>C2-D5</f>
-        <v>108.288</v>
+        <v>119.80799999999999</v>
       </c>
       <c r="F5" s="3">
         <f>C2-C5</f>
-        <v>144.38399999999999</v>
+        <v>159.744</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>144.38399999999999</v>
+        <v>159.744</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>216.57599999999999</v>
+        <v>239.61600000000001</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>180.48</v>
+        <v>199.68</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -912,31 +931,31 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>36.095999999999997</v>
+        <v>39.936000000000007</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>216.57599999999999</v>
+        <v>239.61600000000001</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>252.67199999999997</v>
+        <v>279.55200000000002</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>252.67199999999997</v>
+        <v>279.55200000000002</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>288.76799999999997</v>
+        <v>319.488</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>270.71999999999997</v>
+        <v>299.52</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -955,15 +974,15 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>72.191999999999993</v>
+        <v>79.872000000000014</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>288.76799999999997</v>
+        <v>319.488</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>360.96</v>
+        <v>399.36</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>

--- a/Scheme/DAC_freq.xlsx
+++ b/Scheme/DAC_freq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\WOLF\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -408,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -469,26 +475,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,10 +800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
@@ -797,24 +811,24 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26">
-        <f>48000*4160/1000000</f>
-        <v>199.68</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="27">
+        <f>48000*3920/1000000</f>
+        <v>188.16</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23">
         <f>C2/2</f>
-        <v>99.84</v>
+        <v>94.08</v>
       </c>
       <c r="L2" s="23">
         <f>K2*2</f>
-        <v>199.68</v>
+        <v>188.16</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -823,18 +837,18 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
@@ -855,27 +869,27 @@
       </c>
       <c r="D4" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
-      </c>
-      <c r="E4" s="8">
+        <v>75.263999999999996</v>
+      </c>
+      <c r="E4" s="33">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="34">
         <f>D4</f>
-        <v>79.872000000000014</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="G4" s="8">
         <f>F4</f>
-        <v>79.872000000000014</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="H4" s="3">
         <f>E5</f>
-        <v>119.80799999999999</v>
+        <v>112.896</v>
       </c>
       <c r="I4" s="12">
         <f>(G4+H4)/2</f>
-        <v>99.84</v>
+        <v>94.08</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -891,31 +905,31 @@
       </c>
       <c r="C5" s="8">
         <f>C2*0.2</f>
-        <v>39.936000000000007</v>
+        <v>37.631999999999998</v>
       </c>
       <c r="D5" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
-      </c>
-      <c r="E5" s="8">
+        <v>75.263999999999996</v>
+      </c>
+      <c r="E5" s="33">
         <f>C2-D5</f>
-        <v>119.80799999999999</v>
-      </c>
-      <c r="F5" s="3">
+        <v>112.896</v>
+      </c>
+      <c r="F5" s="34">
         <f>C2-C5</f>
-        <v>159.744</v>
+        <v>150.52799999999999</v>
       </c>
       <c r="G5" s="8">
         <f>F5</f>
-        <v>159.744</v>
+        <v>150.52799999999999</v>
       </c>
       <c r="H5" s="3">
         <f>E6</f>
-        <v>239.61600000000001</v>
+        <v>225.792</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" ref="I5:I6" si="0">(G5+H5)/2</f>
-        <v>199.68</v>
+        <v>188.16</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -931,31 +945,31 @@
       </c>
       <c r="C6" s="8">
         <f>C2*0.2</f>
-        <v>39.936000000000007</v>
+        <v>37.631999999999998</v>
       </c>
       <c r="D6" s="10">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E6" s="8">
         <f>C2+C6</f>
-        <v>239.61600000000001</v>
+        <v>225.792</v>
       </c>
       <c r="F6" s="3">
         <f>C2+D6</f>
-        <v>279.55200000000002</v>
+        <v>263.42399999999998</v>
       </c>
       <c r="G6" s="8">
         <f>F6</f>
-        <v>279.55200000000002</v>
+        <v>263.42399999999998</v>
       </c>
       <c r="H6" s="3">
         <f>E7</f>
-        <v>319.488</v>
+        <v>301.05599999999998</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>299.52</v>
+        <v>282.24</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -974,15 +988,15 @@
       </c>
       <c r="D7" s="11">
         <f>C2*0.4</f>
-        <v>79.872000000000014</v>
+        <v>75.263999999999996</v>
       </c>
       <c r="E7" s="9">
         <f>C2*2-D7</f>
-        <v>319.488</v>
+        <v>301.05599999999998</v>
       </c>
       <c r="F7" s="4">
         <f>C2*2-C7</f>
-        <v>399.36</v>
+        <v>376.32</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
